--- a/multifactorial_analysis/DAG1.xlsx
+++ b/multifactorial_analysis/DAG1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Переменная</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Исход</t>
   </si>
   <si>
-    <t>Конфаундер</t>
-  </si>
-  <si>
-    <t>Как назвать?</t>
-  </si>
-  <si>
     <t>ещё опосредует влияние Mother's age Mother's race Mother's education</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Напряму влияет на исход и через Prenatal care на воздейтвие</t>
   </si>
   <si>
-    <t>Competing Exposures</t>
-  </si>
-  <si>
     <t>Напрямую влияет на исход</t>
   </si>
   <si>
@@ -103,6 +94,75 @@
   </si>
   <si>
     <t>Коллайдер</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Курение матери</t>
+  </si>
+  <si>
+    <t>Вес ребенка при рождении</t>
+  </si>
+  <si>
+    <t>Возраст матери</t>
+  </si>
+  <si>
+    <t>Раса матери</t>
+  </si>
+  <si>
+    <t>Употребление алкогольных напитков матерью</t>
+  </si>
+  <si>
+    <t>Образование матери</t>
+  </si>
+  <si>
+    <t>Пренатальный уход</t>
+  </si>
+  <si>
+    <t>Медицинские риски</t>
+  </si>
+  <si>
+    <t>Пол ребенка</t>
+  </si>
+  <si>
+    <t>Количество предыдущих родов</t>
+  </si>
+  <si>
+    <t>Смерть ребенка</t>
+  </si>
+  <si>
+    <t>Метод родоразрешения</t>
+  </si>
+  <si>
+    <t>Communication characteristics</t>
+  </si>
+  <si>
+    <t>Также опосредует влияние на исход возраста матери, её расы и образования</t>
+  </si>
+  <si>
+    <t>Также опосредует влияние на исход возраста матери и её расы</t>
+  </si>
+  <si>
+    <t>Также опосредует влияние на воздействие медицинских рисков</t>
+  </si>
+  <si>
+    <t>Напряму влияет на исход и через Пренатальных уход на воздейтвие</t>
+  </si>
+  <si>
+    <t>Характеристика связи</t>
+  </si>
+  <si>
+    <t>Опосредует влияние на исход возраста матери и её рысы и образования</t>
+  </si>
+  <si>
+    <t>Конфаундер, влияющий напрямую</t>
+  </si>
+  <si>
+    <t>Конфаундер, влияющий через другие переменные</t>
+  </si>
+  <si>
+    <t>Осложнения при родах</t>
   </si>
 </sst>
 </file>
@@ -435,148 +495,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="1" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
